--- a/Dicionarios/Dicionario_de_dados.xlsx
+++ b/Dicionarios/Dicionario_de_dados.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/515e3fe79dc44fe1/Documentos/FATEC/2025_02-Lab_banco_de_dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/515e3fe79dc44fe1/Documentos/FATEC/2025_02-Lab_banco_de_dados/repo/Dicionarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{B6229CD2-311C-4141-8D7C-D575E448D65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1E754CF-E03D-4C67-A917-B46470F58E5A}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="13_ncr:1_{B6229CD2-311C-4141-8D7C-D575E448D65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBB9EA7D-5E9C-455B-9F28-518F58119F70}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1EE93B32-5A0D-4B5E-8F3D-4DD7E316BA33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" xr2:uid="{1EE93B32-5A0D-4B5E-8F3D-4DD7E316BA33}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="DICIONARIO" sheetId="2" r:id="rId1"/>
+    <sheet name="V1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="155">
   <si>
     <t>Coluna</t>
   </si>
@@ -210,13 +211,304 @@
   </si>
   <si>
     <t>Longitude aproximada do local do acidente</t>
+  </si>
+  <si>
+    <t>Tipo de Dado</t>
+  </si>
+  <si>
+    <t>Restrições</t>
+  </si>
+  <si>
+    <t>MUN_ID</t>
+  </si>
+  <si>
+    <t>NUMBER(38)</t>
+  </si>
+  <si>
+    <t>PK, UNIQUE</t>
+  </si>
+  <si>
+    <t>Identificador único do município (Chave Primária).</t>
+  </si>
+  <si>
+    <t>MUN_MUNICIPIO</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>Nome do município.</t>
+  </si>
+  <si>
+    <t>MUN_REG_DER</t>
+  </si>
+  <si>
+    <t>Região do DER (Departamento de Estradas de Rodagem) a que o município pertence.</t>
+  </si>
+  <si>
+    <t>MUN_REG_ADM</t>
+  </si>
+  <si>
+    <t>Região Administrativa a que o município pertence.</t>
+  </si>
+  <si>
+    <t>CON_ID</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Identificador único da concessionária (Chave Primária).</t>
+  </si>
+  <si>
+    <t>CON_CONCESSIONARIA</t>
+  </si>
+  <si>
+    <t>NOT NULL, UNIQUE</t>
+  </si>
+  <si>
+    <t>Nome da concessionária de rodovia.</t>
+  </si>
+  <si>
+    <t>ROD_ID</t>
+  </si>
+  <si>
+    <t>Identificador único da rodovia (Chave Primária).</t>
+  </si>
+  <si>
+    <t>ROD_CODIGO_RODOVIA</t>
+  </si>
+  <si>
+    <t>Código/Sigla da rodovia (ex: SP-310).</t>
+  </si>
+  <si>
+    <t>ROD_DENOMINACAO</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>Nome de denominação da rodovia.</t>
+  </si>
+  <si>
+    <t>ROD_JURISDICAO</t>
+  </si>
+  <si>
+    <t>Órgão de jurisdição da rodovia (ex: Estadual, Federal).</t>
+  </si>
+  <si>
+    <t>ROD_CON_ID</t>
+  </si>
+  <si>
+    <t>NOT NULL, FK</t>
+  </si>
+  <si>
+    <t>Chave Estrangeira para a tabela CONCESSIONARIAS.</t>
+  </si>
+  <si>
+    <t>TAC_ID</t>
+  </si>
+  <si>
+    <t>Identificador único do tipo de acidente (Chave Primária).</t>
+  </si>
+  <si>
+    <t>TAC_CLASS_ACID</t>
+  </si>
+  <si>
+    <t>Classificação geral do acidente (ex: Colisão, Atropelamento).</t>
+  </si>
+  <si>
+    <t>TAC_TIPO_ACID</t>
+  </si>
+  <si>
+    <t>Tipo detalhado do acidente (ex: Colisão Frontal, Saída de Pista).</t>
+  </si>
+  <si>
+    <t>TVC_ID</t>
+  </si>
+  <si>
+    <t>Identificador único do tipo de veículo (Chave Primária).</t>
+  </si>
+  <si>
+    <t>TVC_VEICULO</t>
+  </si>
+  <si>
+    <t>Descrição do tipo de veículo (ex: Automóvel, Caminhão, Motocicleta).</t>
+  </si>
+  <si>
+    <t>ACD_ID</t>
+  </si>
+  <si>
+    <t>Identificador único do acidente (Chave Primária).</t>
+  </si>
+  <si>
+    <t>ACD_MARCO_QM</t>
+  </si>
+  <si>
+    <t>Quilômetro do marco referencial onde o acidente ocorreu.</t>
+  </si>
+  <si>
+    <t>ACD_SENTIDO</t>
+  </si>
+  <si>
+    <t>Sentido da via no momento do acidente.</t>
+  </si>
+  <si>
+    <t>ACD_DTHR_OC</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Data e hora da ocorrência do acidente.</t>
+  </si>
+  <si>
+    <t>ACD_ANO</t>
+  </si>
+  <si>
+    <t>Ano da ocorrência.</t>
+  </si>
+  <si>
+    <t>ACD_MES</t>
+  </si>
+  <si>
+    <t>Mês da ocorrência.</t>
+  </si>
+  <si>
+    <t>ACD_ILESA_INT</t>
+  </si>
+  <si>
+    <t>Quantidade de vítimas ilesas (Inteiro).</t>
+  </si>
+  <si>
+    <t>ACD_VIT_FATAL_INT</t>
+  </si>
+  <si>
+    <t>Quantidade de vítimas fatais (Inteiro).</t>
+  </si>
+  <si>
+    <t>ACD_VIT_GRAVE_INT</t>
+  </si>
+  <si>
+    <t>Quantidade de vítimas graves (Inteiro).</t>
+  </si>
+  <si>
+    <t>ACD_VIT_LEVE_INT</t>
+  </si>
+  <si>
+    <t>Quantidade de vítimas leves (Inteiro).</t>
+  </si>
+  <si>
+    <t>ACD_VIT_MODERADA_INT</t>
+  </si>
+  <si>
+    <t>Quantidade de vítimas moderadas (Inteiro).</t>
+  </si>
+  <si>
+    <t>ACD_VIT_SEMINFO_INT</t>
+  </si>
+  <si>
+    <t>Quantidade de vítimas sem informação de lesão (Inteiro).</t>
+  </si>
+  <si>
+    <t>ACD_TIPO_PISTA</t>
+  </si>
+  <si>
+    <t>Tipo de pista (ex: Simples, Dupla).</t>
+  </si>
+  <si>
+    <t>ACD_LAT_FINAL</t>
+  </si>
+  <si>
+    <t>Latitude final da localização do acidente.</t>
+  </si>
+  <si>
+    <t>ACD_LON_FINAL</t>
+  </si>
+  <si>
+    <t>Longitude final da localização do acidente.</t>
+  </si>
+  <si>
+    <t>ACD_ROD_ID</t>
+  </si>
+  <si>
+    <t>Chave Estrangeira para a tabela RODOVIAS.</t>
+  </si>
+  <si>
+    <t>ACD_TAC_ID</t>
+  </si>
+  <si>
+    <t>Chave Estrangeira para a tabela TIPOS_ACIDENTES.</t>
+  </si>
+  <si>
+    <t>ACD_CCM_ID</t>
+  </si>
+  <si>
+    <t>Chave Estrangeira para a tabela CONDICOES_CLIMATICAS.</t>
+  </si>
+  <si>
+    <t>ACD_MUN_ID</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>Chave Estrangeira para a tabela MUNICIPIOS.</t>
+  </si>
+  <si>
+    <t>VEN_ID</t>
+  </si>
+  <si>
+    <t>Identificador único do registro de veículo envolvido (Chave Primária).</t>
+  </si>
+  <si>
+    <t>VEN_QTD</t>
+  </si>
+  <si>
+    <t>Quantidade de veículos desse tipo envolvidos no acidente.</t>
+  </si>
+  <si>
+    <t>VEN_ACD_ID</t>
+  </si>
+  <si>
+    <t>Chave Estrangeira para a tabela ACIDENTES.</t>
+  </si>
+  <si>
+    <t>VEN_TVC_ID</t>
+  </si>
+  <si>
+    <t>Chave Estrangeira para a tabela TIPOS_VEICULOS.</t>
+  </si>
+  <si>
+    <t>MUNICIPIOS</t>
+  </si>
+  <si>
+    <t>CONCESSIONARIAS</t>
+  </si>
+  <si>
+    <t>RODOVIAS</t>
+  </si>
+  <si>
+    <t>TIPOS_ACIDENTES</t>
+  </si>
+  <si>
+    <t>TIPOS_VEICULOS</t>
+  </si>
+  <si>
+    <t>ACIDENTES</t>
+  </si>
+  <si>
+    <t>VEICULOS_ENVOLVIDOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,16 +529,46 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -269,21 +591,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -299,6 +648,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -617,11 +970,732 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEB1664-39D4-42E1-95F1-4CF6B4813FEE}">
+  <dimension ref="A1:D59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="8" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4531A12D-DCCB-4CD9-BB44-F9E298A389DA}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -930,5 +2004,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>